--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,12 +625,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2001054</t>
+          <t>2001066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suchi Singh</t>
+          <t>Vimla</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,147 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2001055</t>
+          <t>2001054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Reeta Kushwaha</t>
+          <t>ayush</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2001078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2001063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>raju</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2001064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2001049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pooja</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2001018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rohan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2001034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vikas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2001044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sakshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2001011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dinesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2001077</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Riya</t>
         </is>
       </c>
     </row>
@@ -660,7 +795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -861,12 +996,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2001054</t>
+          <t>2001066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suchi Singh</t>
+          <t>Vimla</t>
         </is>
       </c>
     </row>
@@ -876,12 +1011,147 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2001055</t>
+          <t>2001054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Reeta Kushwaha</t>
+          <t>ayush</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2001078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2001063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>raju</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2001064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2001049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pooja</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2001018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rohan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2001034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vikas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2001044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sakshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2001011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dinesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2001077</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Riya</t>
         </is>
       </c>
     </row>
@@ -896,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,12 +1357,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2001054</t>
+          <t>2001066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suchi Singh</t>
+          <t>Vimla</t>
         </is>
       </c>
     </row>
@@ -1102,12 +1372,147 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2001055</t>
+          <t>2001054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Reeta Kushwaha</t>
+          <t>ayush</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2001078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2001063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>raju</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2001064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2001049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pooja</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2001018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rohan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2001034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vikas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2001044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sakshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2001011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dinesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2001077</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Riya</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1323,12 +1728,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2001054</t>
+          <t>2001066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suchi Singh</t>
+          <t>Vimla</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1743,147 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2001055</t>
+          <t>2001054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Reeta Kushwaha</t>
+          <t>ayush</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2001078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2001063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>raju</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2001064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2001049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pooja</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2001018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rohan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2001034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vikas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2001044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sakshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2001011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dinesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2001077</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Riya</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,12 +2084,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2001054</t>
+          <t>2001066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suchi Singh</t>
+          <t>Vimla</t>
         </is>
       </c>
     </row>
@@ -1559,12 +2099,147 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2001055</t>
+          <t>2001054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Reeta Kushwaha</t>
+          <t>ayush</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2001078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2001063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>raju</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2001064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2001049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pooja</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2001018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rohan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2001034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vikas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2001044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sakshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2001011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dinesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2001077</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Riya</t>
         </is>
       </c>
     </row>
@@ -1579,7 +2254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1780,12 +2455,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2001054</t>
+          <t>2001066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suchi Singh</t>
+          <t>Vimla</t>
         </is>
       </c>
     </row>
@@ -1795,12 +2470,147 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2001055</t>
+          <t>2001054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Reeta Kushwaha</t>
+          <t>ayush</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2001078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2001063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>raju</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2001064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2001049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pooja</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2001018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rohan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2001034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vikas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2001044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sakshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2001011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dinesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2001077</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Riya</t>
         </is>
       </c>
     </row>
@@ -1815,7 +2625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,12 +2816,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2001054</t>
+          <t>2001066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suchi Singh</t>
+          <t>Vimla</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2831,147 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2001055</t>
+          <t>2001054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Reeta Kushwaha</t>
+          <t>ayush</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2001078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2001063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>raju</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2001064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2001049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pooja</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2001018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rohan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2001034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vikas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2001044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sakshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2001011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dinesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2001077</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Riya</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,7 +3180,7 @@
           <t>Suchitra Kushwaha</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -2247,17 +3192,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2001054</t>
+          <t>2001066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suchi Singh</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>Vimla</t>
         </is>
       </c>
     </row>
@@ -2267,24 +3207,157 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2001055</t>
+          <t>2001054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Reeta Kushwaha</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
+          <t>ayush</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2001078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="AC5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2001063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>raju</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2001064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2001049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pooja</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2001018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rohan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2001034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vikas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2001044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sakshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2001011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dinesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2001077</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Riya</t>
         </is>
       </c>
     </row>
@@ -2299,7 +3372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2490,12 +3563,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2001054</t>
+          <t>2001066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suchi Singh</t>
+          <t>Vimla</t>
         </is>
       </c>
     </row>
@@ -2505,12 +3578,147 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2001055</t>
+          <t>2001054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Reeta Kushwaha</t>
+          <t>ayush</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2001078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2001063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>raju</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2001064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2001049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pooja</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2001018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rohan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2001034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vikas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2001044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sakshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2001011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dinesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2001077</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Riya</t>
         </is>
       </c>
     </row>
@@ -2525,7 +3733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2726,12 +3934,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2001054</t>
+          <t>2001066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suchi Singh</t>
+          <t>Vimla</t>
         </is>
       </c>
     </row>
@@ -2741,12 +3949,147 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2001055</t>
+          <t>2001054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Reeta Kushwaha</t>
+          <t>ayush</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2001078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2001063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>raju</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2001064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2001049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pooja</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2001018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rohan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2001034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vikas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2001044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sakshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2001011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dinesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2001077</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Riya</t>
         </is>
       </c>
     </row>
@@ -2761,7 +4104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2962,12 +4305,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2001054</t>
+          <t>2001066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suchi Singh</t>
+          <t>Vimla</t>
         </is>
       </c>
     </row>
@@ -2977,12 +4320,147 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2001055</t>
+          <t>2001054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Reeta Kushwaha</t>
+          <t>ayush</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2001078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2001063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>raju</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2001064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2001049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pooja</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2001018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rohan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2001034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vikas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2001044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sakshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2001011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dinesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2001077</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Riya</t>
         </is>
       </c>
     </row>
@@ -2997,7 +4475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3188,12 +4666,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2001054</t>
+          <t>2001066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suchi Singh</t>
+          <t>Vimla</t>
         </is>
       </c>
     </row>
@@ -3203,12 +4681,147 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2001055</t>
+          <t>2001054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Reeta Kushwaha</t>
+          <t>ayush</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2001078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2001063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>raju</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2001064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2001049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pooja</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2001018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rohan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2001034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vikas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2001044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sakshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2001011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dinesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2001077</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Riya</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,172 +615,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suchitra Kushwaha</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2001066</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Vimla</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2001054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ayush</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2001078</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>pika</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2001063</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>raju</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2001064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2001049</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>pooja</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2001018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rohan</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2001034</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>vikas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2001044</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sakshi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2001011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dinesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2001077</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Riya</t>
+          <t>Suchitra</t>
         </is>
       </c>
     </row>
@@ -795,7 +630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,172 +821,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suchitra Kushwaha</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2001066</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Vimla</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2001054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ayush</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2001078</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>pika</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2001063</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>raju</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2001064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2001049</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>pooja</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2001018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rohan</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2001034</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>vikas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2001044</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sakshi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2001011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dinesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2001077</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Riya</t>
+          <t>Suchitra</t>
         </is>
       </c>
     </row>
@@ -1166,7 +836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1347,172 +1017,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suchitra Kushwaha</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2001066</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Vimla</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2001054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ayush</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2001078</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>pika</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2001063</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>raju</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2001064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2001049</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>pooja</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2001018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rohan</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2001034</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>vikas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2001044</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sakshi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2001011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dinesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2001077</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Riya</t>
+          <t>Suchitra</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1718,172 +1223,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suchitra Kushwaha</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2001066</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Vimla</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2001054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ayush</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2001078</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>pika</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2001063</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>raju</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2001064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2001049</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>pooja</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2001018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rohan</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2001034</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>vikas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2001044</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sakshi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2001011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dinesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2001077</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Riya</t>
+          <t>Suchitra</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE13"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2074,172 +1414,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suchitra Kushwaha</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2001066</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Vimla</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2001054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ayush</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2001078</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>pika</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2001063</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>raju</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2001064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2001049</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>pooja</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2001018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rohan</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2001034</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>vikas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2001044</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sakshi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2001011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dinesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2001077</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Riya</t>
+          <t>Suchitra</t>
         </is>
       </c>
     </row>
@@ -2254,7 +1429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,172 +1620,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suchitra Kushwaha</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2001066</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Vimla</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2001054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ayush</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2001078</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>pika</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2001063</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>raju</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2001064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2001049</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>pooja</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2001018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rohan</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2001034</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>vikas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2001044</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sakshi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2001011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dinesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2001077</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Riya</t>
+          <t>Suchitra</t>
         </is>
       </c>
     </row>
@@ -2625,7 +1635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2806,172 +1816,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suchitra Kushwaha</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2001066</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Vimla</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2001054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ayush</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2001078</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>pika</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2001063</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>raju</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2001064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2001049</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>pooja</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2001018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rohan</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2001034</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>vikas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2001044</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sakshi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2001011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dinesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2001077</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Riya</t>
+          <t>Suchitra</t>
         </is>
       </c>
     </row>
@@ -2986,7 +1831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3177,187 +2022,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suchitra Kushwaha</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2001066</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Vimla</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2001054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ayush</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2001078</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>pika</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2001063</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>raju</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2001064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2001049</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>pooja</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2001018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rohan</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2001034</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>vikas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2001044</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sakshi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2001011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dinesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2001077</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Riya</t>
+          <t>Suchitra</t>
         </is>
       </c>
     </row>
@@ -3372,7 +2037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3553,172 +2218,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suchitra Kushwaha</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2001066</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Vimla</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2001054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ayush</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2001078</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>pika</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2001063</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>raju</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2001064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2001049</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>pooja</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2001018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rohan</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2001034</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>vikas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2001044</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sakshi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2001011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dinesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2001077</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Riya</t>
+          <t>Suchitra</t>
         </is>
       </c>
     </row>
@@ -3733,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3924,172 +2424,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suchitra Kushwaha</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2001066</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Vimla</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2001054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ayush</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2001078</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>pika</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2001063</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>raju</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2001064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2001049</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>pooja</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2001018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rohan</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2001034</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>vikas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2001044</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sakshi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2001011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dinesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2001077</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Riya</t>
+          <t>Suchitra</t>
         </is>
       </c>
     </row>
@@ -4104,7 +2439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4295,172 +2630,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suchitra Kushwaha</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2001066</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Vimla</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2001054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ayush</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2001078</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>pika</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2001063</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>raju</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2001064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2001049</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>pooja</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2001018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rohan</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2001034</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>vikas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2001044</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sakshi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2001011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dinesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2001077</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Riya</t>
+          <t>Suchitra</t>
         </is>
       </c>
     </row>
@@ -4475,7 +2645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4656,172 +2826,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suchitra Kushwaha</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2001066</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Vimla</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2001054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ayush</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2001078</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>pika</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2001063</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>raju</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2001064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2001049</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>pooja</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2001018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rohan</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2001034</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>vikas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2001044</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sakshi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2001011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dinesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2001077</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Riya</t>
+          <t>Suchitra</t>
         </is>
       </c>
     </row>
